--- a/data/Resources.xlsx
+++ b/data/Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan/CMU/medicine/sgRNA-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16324B1-113A-FB44-A828-ACE25BC231AD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA809E3-2305-5E49-846B-5D5F0100E0F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{0B20E0D7-22F5-D043-B5A9-72B4656652DD}"/>
   </bookViews>
@@ -469,7 +469,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,6 +578,12 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
+      <c r="F4">
+        <v>1278</v>
+      </c>
+      <c r="G4">
+        <v>1278</v>
+      </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>

--- a/data/Resources.xlsx
+++ b/data/Resources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan/CMU/medicine/sgRNA-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA809E3-2305-5E49-846B-5D5F0100E0F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452D0DD-D47E-7449-AE13-1FC0CFB92104}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{0B20E0D7-22F5-D043-B5A9-72B4656652DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>CRISPOR</t>
   </si>
@@ -75,9 +75,6 @@
     <t>https://www.nature.com/articles/nbt.3026#s1</t>
   </si>
   <si>
-    <t>log2change in abundance</t>
-  </si>
-  <si>
     <t>promoter</t>
   </si>
   <si>
@@ -115,6 +112,30 @@
   </si>
   <si>
     <t>if it cuts on target high its high, if it cuts off target high it has large off target effects</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>guide seqs or RNA</t>
+  </si>
+  <si>
+    <t>Guide seqs have NGG, target sites are larger than binding region</t>
+  </si>
+  <si>
+    <t>guide index</t>
+  </si>
+  <si>
+    <t>target index</t>
+  </si>
+  <si>
+    <t>label index</t>
+  </si>
+  <si>
+    <t>log2change</t>
+  </si>
+  <si>
+    <t>target sequence has flanking regions</t>
   </si>
 </sst>
 </file>
@@ -466,15 +487,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6162CF54-D817-0348-9758-4A143C642853}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -488,28 +512,40 @@
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" t="s">
-        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F2">
         <v>714</v>
@@ -535,11 +571,14 @@
       <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" t="s">
-        <v>29</v>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -550,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3">
         <v>719</v>
@@ -561,11 +600,23 @@
       <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -576,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>1278</v>
@@ -585,16 +636,28 @@
         <v>1278</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>

--- a/data/Resources.xlsx
+++ b/data/Resources.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan/CMU/medicine/sgRNA-prediction/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganev/Documents/GitHub/sgRNA-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A452D0DD-D47E-7449-AE13-1FC0CFB92104}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16280" xr2:uid="{0B20E0D7-22F5-D043-B5A9-72B4656652DD}"/>
+    <workbookView xWindow="4700" yWindow="8620" windowWidth="28800" windowHeight="16280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>CRISPOR</t>
   </si>
@@ -60,18 +65,12 @@
     <t>yes</t>
   </si>
   <si>
-    <t>Elevation</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>why</t>
   </si>
   <si>
-    <t>Raw guide seq reads</t>
-  </si>
-  <si>
     <t>https://www.nature.com/articles/nbt.3026#s1</t>
   </si>
   <si>
@@ -136,12 +135,27 @@
   </si>
   <si>
     <t>target sequence has flanking regions</t>
+  </si>
+  <si>
+    <t>negative log change means it worked</t>
+  </si>
+  <si>
+    <t>Azimuth</t>
+  </si>
+  <si>
+    <t>day21-ETP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">guide PAM </t>
+  </si>
+  <si>
+    <t>target flanking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -486,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6162CF54-D817-0348-9758-4A143C642853}">
-  <dimension ref="A1:O5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -498,7 +512,7 @@
     <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -509,43 +523,49 @@
         <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>24</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
+      <c r="Q1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -556,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>714</v>
@@ -571,14 +591,14 @@
       <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -589,7 +609,7 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3">
         <v>719</v>
@@ -610,24 +630,27 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" t="s">
-        <v>31</v>
+        <v>10</v>
+      </c>
+      <c r="P3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <v>1278</v>
@@ -636,10 +659,10 @@
         <v>1278</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -650,22 +673,52 @@
       <c r="M4">
         <v>11</v>
       </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
       <c r="O4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>40720</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/data/Resources.xlsx
+++ b/data/Resources.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>CRISPOR</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>target flanking</t>
+  </si>
+  <si>
+    <t>6TG_2ug/mL</t>
+  </si>
+  <si>
+    <t>Res6tg</t>
   </si>
 </sst>
 </file>
@@ -501,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +727,32 @@
         <v>35</v>
       </c>
     </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Resources.xlsx
+++ b/data/Resources.xlsx
@@ -1,36 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/morganev/Documents/GitHub/sgRNA-prediction/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Brendan/CMU/medicine/sgRNA-prediction/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634FDED3-204B-3F45-8BD1-2BD03132BA44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="8620" windowWidth="28800" windowHeight="16280"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>CRISPOR</t>
   </si>
@@ -152,16 +153,16 @@
     <t>target flanking</t>
   </si>
   <si>
-    <t>6TG_2ug/mL</t>
-  </si>
-  <si>
-    <t>Res6tg</t>
+    <t>I think if it is pos then it worked.</t>
+  </si>
+  <si>
+    <t>Azimuth_drugscreen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -506,16 +507,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="72.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
@@ -734,8 +736,14 @@
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="F6">
+        <v>4329</v>
+      </c>
+      <c r="G6">
+        <v>4329</v>
+      </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -751,6 +759,9 @@
       </c>
       <c r="O6" t="s">
         <v>10</v>
+      </c>
+      <c r="P6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
